--- a/datasets/vetor_target_ESBL.xlsx
+++ b/datasets/vetor_target_ESBL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed7a80ccca11c1e/Documents/BRUNA/MESTRADO/PROJETO MESTRADO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruna\OneDrive\Documents\BRUNA\MESTRADO\PROJETO MESTRADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AC5F92-E342-42EA-A490-022374EFDC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D61ADD6-20D0-47EE-A3D4-0EA034336DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" xr2:uid="{3DD57B7F-B785-46F1-A0F1-C89ED7DF81BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3DD57B7F-B785-46F1-A0F1-C89ED7DF81BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,11 +390,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12785CF-D37D-4D1C-90DB-982D527368E7}">
-  <dimension ref="A1:A763"/>
+  <dimension ref="A1:A610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A763"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -590,7 +588,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
@@ -625,7 +623,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
@@ -645,12 +643,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
@@ -715,12 +713,12 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
@@ -775,17 +773,17 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
@@ -800,7 +798,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
@@ -815,12 +813,12 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
@@ -880,17 +878,17 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
@@ -915,7 +913,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
@@ -925,17 +923,17 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
@@ -960,12 +958,12 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
@@ -995,22 +993,22 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
@@ -1030,7 +1028,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
@@ -1050,7 +1048,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
@@ -1085,17 +1083,17 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
@@ -1115,7 +1113,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
@@ -1130,7 +1128,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
@@ -1145,17 +1143,17 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
@@ -1185,12 +1183,12 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
@@ -1210,7 +1208,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
@@ -1260,7 +1258,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
@@ -1275,12 +1273,12 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
@@ -1295,12 +1293,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
@@ -1345,27 +1343,27 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
@@ -1390,7 +1388,7 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
@@ -1420,7 +1418,7 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
@@ -1435,7 +1433,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
@@ -1465,7 +1463,7 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
@@ -1485,12 +1483,12 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
@@ -1535,7 +1533,7 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
@@ -1565,12 +1563,12 @@
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
@@ -1590,12 +1588,12 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
@@ -1610,7 +1608,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
@@ -1620,7 +1618,7 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
@@ -1645,7 +1643,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
@@ -1665,17 +1663,17 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
@@ -1685,7 +1683,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
@@ -1740,17 +1738,17 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
@@ -1775,12 +1773,12 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
@@ -1800,7 +1798,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
@@ -1870,7 +1868,7 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
@@ -1885,7 +1883,7 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
@@ -1905,7 +1903,7 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
@@ -1955,12 +1953,12 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
@@ -1975,7 +1973,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
@@ -1985,12 +1983,12 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
@@ -2030,7 +2028,7 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
@@ -2070,7 +2068,7 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.35">
@@ -2085,12 +2083,12 @@
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
@@ -2110,12 +2108,12 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
@@ -2130,7 +2128,7 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
@@ -2155,7 +2153,7 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
@@ -2200,12 +2198,12 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
@@ -2235,7 +2233,7 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
@@ -2270,7 +2268,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
@@ -2280,7 +2278,7 @@
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
@@ -2305,7 +2303,7 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.35">
@@ -2335,12 +2333,12 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.35">
@@ -2410,7 +2408,7 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.35">
@@ -2420,7 +2418,7 @@
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.35">
@@ -2440,7 +2438,7 @@
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.35">
@@ -2485,7 +2483,7 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.35">
@@ -2500,7 +2498,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.35">
@@ -2510,7 +2508,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.35">
@@ -2555,7 +2553,7 @@
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.35">
@@ -2580,7 +2578,7 @@
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.35">
@@ -2630,7 +2628,7 @@
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.35">
@@ -2640,12 +2638,12 @@
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.35">
@@ -2675,7 +2673,7 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.35">
@@ -2735,7 +2733,7 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.35">
@@ -2760,7 +2758,7 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.35">
@@ -2775,7 +2773,7 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.35">
@@ -2820,12 +2818,12 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.35">
@@ -2845,7 +2843,7 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.35">
@@ -2935,7 +2933,7 @@
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.35">
@@ -2960,7 +2958,7 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.35">
@@ -2995,7 +2993,7 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.35">
@@ -3010,7 +3008,7 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.35">
@@ -3025,7 +3023,7 @@
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.35">
@@ -3065,7 +3063,7 @@
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.35">
@@ -3180,7 +3178,7 @@
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.35">
@@ -3215,7 +3213,7 @@
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.35">
@@ -3240,7 +3238,7 @@
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.35">
@@ -3280,7 +3278,7 @@
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.35">
@@ -3305,7 +3303,7 @@
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.35">
@@ -3330,7 +3328,7 @@
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.35">
@@ -3360,7 +3358,7 @@
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.35">
@@ -3380,7 +3378,7 @@
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.35">
@@ -3400,7 +3398,7 @@
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.35">
@@ -3420,7 +3418,7 @@
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.35">
@@ -3435,781 +3433,16 @@
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A613">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A614">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A615">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A616">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A617">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A618">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A619">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A620">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A621">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A622">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A623">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A624">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A625">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A626">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A627">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A628">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A629">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A630">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A631">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A632">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A633">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A634">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A635">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A636">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A637">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A638">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A639">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A640">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A641">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A642">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A643">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A644">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A646">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A647">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A649">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A650">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A651">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A652">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A653">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A654">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A655">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A656">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A657">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A658">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A659">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A660">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A661">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A662">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A663">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A664">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A665">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A666">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A667">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A668">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A670">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A671">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A672">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A673">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A674">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A676">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A677">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A679">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A682">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A683">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A685">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A686">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A687">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A688">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A692">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A693">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A694">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A695">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A698">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A699">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A700">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A701">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A704">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A705">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A706">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A707">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A708">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A709">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A710">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A711">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A712">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A713">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A714">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A715">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A716">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A717">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A718">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A719">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A720">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A721">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A722">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A723">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A724">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A725">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A726">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A727">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A728">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A729">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A730">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A731">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A732">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A733">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A734">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A735">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A736">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A737">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A738">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A739">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A740">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A741">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A742">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A743">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A744">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A745">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A746">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A747">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A748">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A749">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A751">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A752">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A753">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A755">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A756">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A758">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A759">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A760">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A761">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A762">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A763">
         <v>1</v>
       </c>
     </row>
